--- a/01_analyses_states/Manipur/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Manipur/results/SoIB_summaries.xlsx
@@ -516,10 +516,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +526,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,10 +536,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>51</v>
-      </c>
-      <c r="C4">
-        <v>11.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -555,10 +546,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>186</v>
-      </c>
-      <c r="C5">
-        <v>43.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -568,10 +556,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <v>19.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -581,10 +566,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <v>21.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +697,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>431</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +707,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -761,33 +743,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Range</t>
+          <t>IUCN</t>
         </is>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>38.9</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IUCN</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>61.1</v>
       </c>
     </row>
   </sheetData>

--- a/01_analyses_states/Manipur/results/SoIB_summaries.xlsx
+++ b/01_analyses_states/Manipur/results/SoIB_summaries.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Range Status" sheetId="2" r:id="rId2"/>
     <sheet name="Priority Status" sheetId="3" r:id="rId3"/>
     <sheet name="Species qualification" sheetId="4" r:id="rId4"/>
-    <sheet name="High Priority break-up" sheetId="5" r:id="rId5"/>
+    <sheet name="Interannual update - High Pri" sheetId="5" r:id="rId5"/>
+    <sheet name="Major update - High Priority " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -473,10 +474,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C8">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +602,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3">
@@ -611,7 +612,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +622,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>346</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -657,11 +658,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SoIB 2023 Assessment</t>
+          <t>SoIB Assessment</t>
         </is>
       </c>
       <c r="B2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3">
@@ -706,6 +707,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Break-up</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (no.)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High Species (perc.)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (no.)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>New High Species (perc.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trend New</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>76.7</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IUCN</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>23.3</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
